--- a/DataDefinition Table.xlsx
+++ b/DataDefinition Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hajimesato/development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0227FBF-00C6-9249-BEED-73E0C37C8718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520DE006-B2B6-E745-A432-8514CD04DCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{3AF97569-97BD-F44C-BD12-BA12BA45403F}"/>
+    <workbookView xWindow="17080" yWindow="500" windowWidth="34120" windowHeight="28300" xr2:uid="{3AF97569-97BD-F44C-BD12-BA12BA45403F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="77">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -291,41 +291,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>similarity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>類似度</t>
-    <rPh sb="0" eb="3">
-      <t>ルイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索クエリとの類似度計算後に投入</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="7" eb="12">
-      <t>ルイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>g</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FLOAT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FloatField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sentence</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -508,6 +473,84 @@
     <rPh sb="11" eb="13">
       <t>ニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言日時</t>
+    <rPh sb="0" eb="4">
+      <t>ハツゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>答弁があった日付を入力</t>
+    <rPh sb="0" eb="2">
+      <t>トウベn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DatetimeField</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索日時</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザが検索フォームに入力した日時</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto_now</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto_nowで自動保存</t>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TwitterユーザID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -931,16 +974,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522FC04F-3EFE-8F4B-BC78-9058E7B01F36}">
-  <dimension ref="B2:M36"/>
+  <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1082,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1144,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>13</v>
@@ -1242,10 +1285,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
@@ -1279,10 +1322,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>13</v>
@@ -1301,121 +1344,119 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+    <row r="15" spans="2:13">
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="3"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="3">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>9</v>
@@ -1423,35 +1464,33 @@
       <c r="L19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>9</v>
@@ -1463,405 +1502,411 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="3">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="L21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="H23" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="L23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="3">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="4"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="F31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="J31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="3"/>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E35" s="3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H35" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>9</v>
@@ -1873,37 +1918,103 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="3">
+        <v>100</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="3">
         <v>3</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="I38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
